--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -300,7 +300,22 @@
     <t>Thiết bị lỗi module GSM</t>
   </si>
   <si>
-    <t>BG</t>
+    <t>IMEI mới : 864811036927296</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị sóng GSM kém</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
   </si>
 </sst>
 </file>
@@ -706,6 +721,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,30 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1171,58 +1186,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1262,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1328,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1339,7 +1354,9 @@
       <c r="G7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="I7" s="60" t="s">
         <v>85</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -1363,14 +1380,14 @@
         <v>63</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1419,7 +1436,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +1465,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1494,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1523,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1552,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1566,7 +1583,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1612,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1641,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1670,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1789,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1804,7 +1821,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1985,7 +2002,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2241,7 +2258,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2884,13 +2901,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2902,6 +2912,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2912,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2945,43 +2962,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3026,58 +3043,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3102,23 +3119,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3189,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3225,7 +3242,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3255,7 +3272,9 @@
       <c r="I8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K8" s="40" t="s">
         <v>70</v>
       </c>
@@ -3263,7 +3282,7 @@
         <v>64</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -3273,14 +3292,14 @@
         <v>63</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3352,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3381,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3410,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3420,7 +3439,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3451,7 +3470,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3480,7 +3499,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3509,7 +3528,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3538,7 +3557,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3657,7 +3676,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3721,7 +3740,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3998,7 +4017,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4190,7 +4209,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4769,13 +4788,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4787,6 +4799,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4830,43 +4849,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4911,58 +4930,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4987,23 +5006,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,7 +5048,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5060,7 +5079,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5089,7 +5108,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5137,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5147,7 +5166,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5176,7 +5195,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5205,7 +5224,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5236,7 +5255,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5265,7 +5284,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5294,7 +5313,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5323,7 +5342,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6554,13 +6573,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6572,6 +6584,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="35" r:id="rId1"/>
@@ -721,6 +721,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,32 +760,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1105,43 +1105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1186,58 +1186,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1262,23 +1262,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,9 @@
       <c r="B6" s="37">
         <v>44536</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44539</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -1328,7 +1330,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1343,7 +1345,9 @@
       <c r="B7" s="37">
         <v>44536</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44539</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
@@ -1372,7 +1376,9 @@
       <c r="M7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>275000</v>
+      </c>
       <c r="O7" s="40" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1393,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1406,9 @@
       <c r="B8" s="37">
         <v>44536</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44539</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
@@ -1436,7 +1444,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +1473,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1494,7 +1502,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1523,7 +1531,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1552,7 +1560,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1583,7 +1591,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1620,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1678,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2901,6 +2909,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2912,13 +2927,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2929,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2962,43 +2970,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3043,58 +3051,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3119,23 +3127,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,7 +3153,9 @@
       <c r="B6" s="37">
         <v>44536</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44539</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -3189,7 +3199,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3204,7 +3214,9 @@
       <c r="B7" s="37">
         <v>44536</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44539</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3242,7 +3254,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3255,7 +3267,9 @@
       <c r="B8" s="37">
         <v>44536</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44539</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -3299,7 +3313,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3312,7 +3326,9 @@
       <c r="B9" s="37">
         <v>44536</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44539</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3352,7 +3368,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3381,7 +3397,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3410,7 +3426,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3439,7 +3455,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3470,7 +3486,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3515,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3528,7 +3544,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3557,7 +3573,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4788,6 +4804,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4799,13 +4822,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4849,43 +4865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4930,58 +4946,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5006,23 +5022,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5064,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5079,7 +5095,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5108,7 +5124,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5153,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5166,7 +5182,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5211,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5224,7 +5240,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5255,7 +5271,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5284,7 +5300,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5313,7 +5329,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5342,7 +5358,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6573,6 +6589,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6584,13 +6607,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="35" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1289,7 @@
         <v>44536</v>
       </c>
       <c r="C6" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
@@ -1346,7 +1346,7 @@
         <v>44536</v>
       </c>
       <c r="C7" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
@@ -1376,9 +1376,7 @@
       <c r="M7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="1">
-        <v>275000</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>62</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>44536</v>
       </c>
       <c r="C8" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
@@ -2937,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3152,7 @@
         <v>44536</v>
       </c>
       <c r="C6" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
@@ -3215,7 +3213,7 @@
         <v>44536</v>
       </c>
       <c r="C7" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
@@ -3268,7 +3266,7 @@
         <v>44536</v>
       </c>
       <c r="C8" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
@@ -3327,7 +3325,7 @@
         <v>44536</v>
       </c>
       <c r="C9" s="37">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
